--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981443E1-A5C9-4FB1-BBB8-DE8F828D27AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075D881D-40BA-440A-A7F5-9FDDC3A6A52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 0" sheetId="2" r:id="rId1"/>
+    <sheet name="Tempo" sheetId="3" r:id="rId1"/>
+    <sheet name="Sprint 0" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Atividades</t>
   </si>
@@ -160,6 +161,30 @@
   </si>
   <si>
     <t>Média de horas por dia</t>
+  </si>
+  <si>
+    <t>Preço por hora</t>
+  </si>
+  <si>
+    <t>Quantidade de integrantes</t>
+  </si>
+  <si>
+    <t>Tempo diário</t>
+  </si>
+  <si>
+    <t>Quantidade de dias</t>
+  </si>
+  <si>
+    <t>Total horas sprint</t>
+  </si>
+  <si>
+    <t>Total custo sprint</t>
+  </si>
+  <si>
+    <t>Total horas projeto</t>
+  </si>
+  <si>
+    <t>Total custo projeto</t>
   </si>
 </sst>
 </file>
@@ -273,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,12 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +358,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,64 +479,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>141</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>141</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>364.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,67 +573,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>139.04761904761904</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132.09523809523807</c:v>
+                  <c:v>332.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.14285714285712</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.19047619047618</c:v>
+                  <c:v>297.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.23809523809523</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.28571428571428</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.333333333333329</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.38095238095238</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.428571428571431</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.476190476190482</c:v>
+                  <c:v>192.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.523809523809533</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62.571428571428584</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.619047619047635</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.666666666666686</c:v>
+                  <c:v>122.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.714285714285737</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.761904761904788</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.809523809523835</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.857142857142883</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.90476190476193</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9523809523809774</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4868995751603507E-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,13 +1737,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECB3CFB-FAFD-448D-BA08-3C7BDBA6E633}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="24">
+        <f>B3*B4*B5</f>
+        <v>367.5</v>
+      </c>
+      <c r="C6">
+        <f>B6/7</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="24">
+        <f>B2*B6</f>
+        <v>18375</v>
+      </c>
+      <c r="C7">
+        <f>B7/7</f>
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="24">
+        <f>B6*4</f>
+        <v>1470</v>
+      </c>
+      <c r="C8">
+        <f>B8/7</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="24">
+        <f>B7*4</f>
+        <v>73500</v>
+      </c>
+      <c r="C9">
+        <f>B9/7</f>
+        <v>10500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B4BA60-9604-4D54-BDB3-BA720851CBCD}">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1728,39 +1861,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1826,8 +1959,8 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -1958,15 +2091,13 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>8</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1990,10 +2121,11 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <f>0.5+0.5</f>
+        <v>1</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2022,7 +2154,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2032,9 +2164,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>9</v>
-      </c>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -2054,9 +2184,11 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.25</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2084,7 +2216,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2092,17 +2224,13 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>90</v>
-      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>15</v>
-      </c>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -2178,9 +2306,11 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.5</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2208,87 +2338,87 @@
       </c>
       <c r="B14" s="5">
         <f>B15</f>
-        <v>146</v>
+        <v>367.5</v>
       </c>
       <c r="C14" s="3">
         <f>B15-SUM(C4:C13)</f>
-        <v>141</v>
+        <v>364.75</v>
       </c>
       <c r="D14" s="3">
         <f>C14-SUM(D4:D13)</f>
-        <v>141</v>
+        <v>364.75</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ref="E14:V14" si="1">D14-SUM(E4:E13)</f>
-        <v>141</v>
+        <v>364.75</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>364.75</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>364.75</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>364.75</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>364.75</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>364.75</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>364.75</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>364.75</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>364.75</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>364.75</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>364.75</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>364.75</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>364.75</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>364.75</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>364.75</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>364.75</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>364.75</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>364.75</v>
       </c>
       <c r="W14" s="3"/>
     </row>
@@ -2297,167 +2427,167 @@
         <v>34</v>
       </c>
       <c r="B15" s="10">
-        <f>SUM(D18:D20)</f>
-        <v>146</v>
+        <f>Tempo!B6</f>
+        <v>367.5</v>
       </c>
       <c r="C15" s="3">
         <f>B15-B24</f>
-        <v>139.04761904761904</v>
+        <v>350</v>
       </c>
       <c r="D15" s="3">
         <f>C15-B24</f>
-        <v>132.09523809523807</v>
+        <v>332.5</v>
       </c>
       <c r="E15" s="3">
         <f>D15-B24</f>
-        <v>125.14285714285712</v>
+        <v>315</v>
       </c>
       <c r="F15" s="3">
         <f>E15-B24</f>
-        <v>118.19047619047618</v>
+        <v>297.5</v>
       </c>
       <c r="G15" s="3">
         <f>F15-B24</f>
-        <v>111.23809523809523</v>
+        <v>280</v>
       </c>
       <c r="H15" s="3">
         <f>G15-B24</f>
-        <v>104.28571428571428</v>
+        <v>262.5</v>
       </c>
       <c r="I15" s="3">
         <f>H15-B24</f>
-        <v>97.333333333333329</v>
+        <v>245</v>
       </c>
       <c r="J15" s="3">
         <f>I15-B24</f>
-        <v>90.38095238095238</v>
+        <v>227.5</v>
       </c>
       <c r="K15" s="3">
         <f>J15-B24</f>
-        <v>83.428571428571431</v>
+        <v>210</v>
       </c>
       <c r="L15" s="3">
         <f>K15-B24</f>
-        <v>76.476190476190482</v>
+        <v>192.5</v>
       </c>
       <c r="M15" s="3">
         <f>L15-B24</f>
-        <v>69.523809523809533</v>
+        <v>175</v>
       </c>
       <c r="N15" s="3">
         <f>M15-B24</f>
-        <v>62.571428571428584</v>
+        <v>157.5</v>
       </c>
       <c r="O15" s="3">
         <f>N15-B24</f>
-        <v>55.619047619047635</v>
+        <v>140</v>
       </c>
       <c r="P15" s="3">
         <f>O15-B24</f>
-        <v>48.666666666666686</v>
+        <v>122.5</v>
       </c>
       <c r="Q15" s="3">
         <f>P15-B24</f>
-        <v>41.714285714285737</v>
+        <v>105</v>
       </c>
       <c r="R15" s="3">
         <f>Q15-B24</f>
-        <v>34.761904761904788</v>
+        <v>87.5</v>
       </c>
       <c r="S15" s="3">
         <f>R15-B24</f>
-        <v>27.809523809523835</v>
+        <v>70</v>
       </c>
       <c r="T15" s="3">
         <f>S15-B24</f>
-        <v>20.857142857142883</v>
+        <v>52.5</v>
       </c>
       <c r="U15" s="3">
         <f>T15-B24</f>
-        <v>13.90476190476193</v>
+        <v>35</v>
       </c>
       <c r="V15" s="3">
         <f>U15-B24</f>
-        <v>6.9523809523809774</v>
+        <v>17.5</v>
       </c>
       <c r="W15" s="3">
         <f>IF(V15-B24&lt;0,0,V15-B24)</f>
-        <v>2.4868995751603507E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>5</v>
       </c>
-      <c r="C18" s="14">
-        <v>16</v>
+      <c r="C18" s="12">
+        <v>4</v>
       </c>
       <c r="D18" s="3">
         <f>B18*C18</f>
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>5</v>
       </c>
-      <c r="C19" s="14">
-        <v>6</v>
+      <c r="C19" s="12">
+        <v>2</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ref="D19:D20" si="2">B19*C19</f>
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>9</v>
       </c>
-      <c r="C20" s="14">
-        <v>4</v>
+      <c r="C20" s="12">
+        <v>1</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <f>COUNTA(C3:W3)</f>
         <v>21</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
@@ -2465,7 +2595,7 @@
       </c>
       <c r="B24" s="9">
         <f>B15/B22</f>
-        <v>6.9523809523809526</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075D881D-40BA-440A-A7F5-9FDDC3A6A52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF07B9-56F1-472B-A510-EB7F658AB217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,14 +359,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,64 +479,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>364.75</c:v>
+                  <c:v>277.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>364.75</c:v>
+                  <c:v>272.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>364.75</c:v>
+                  <c:v>268.62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>268.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,64 +576,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>332.5</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>315</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>297.5</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>262.5</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>227.5</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>192.5</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>175</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>157.5</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>122.5</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87.5</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1741,7 +1744,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1750,13 +1753,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="24"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <v>50</v>
       </c>
     </row>
@@ -1764,7 +1767,7 @@
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>7</v>
       </c>
     </row>
@@ -1772,15 +1775,15 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="24">
-        <v>2.5</v>
+      <c r="B4" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>21</v>
       </c>
     </row>
@@ -1788,52 +1791,52 @@
       <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <f>B3*B4*B5</f>
-        <v>367.5</v>
+        <v>294</v>
       </c>
       <c r="C6">
         <f>B6/7</f>
-        <v>52.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <f>B2*B6</f>
-        <v>18375</v>
+        <v>14700</v>
       </c>
       <c r="C7">
         <f>B7/7</f>
-        <v>2625</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <f>B6*4</f>
-        <v>1470</v>
+        <v>1176</v>
       </c>
       <c r="C8">
         <f>B8/7</f>
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <f>B7*4</f>
-        <v>73500</v>
+        <v>58800</v>
       </c>
       <c r="C9">
         <f>B9/7</f>
-        <v>10500</v>
+        <v>8400</v>
       </c>
     </row>
   </sheetData>
@@ -1861,39 +1864,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1959,8 +1962,8 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -2091,11 +2094,14 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <f>0.3+3.33</f>
+        <v>3.63</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2216,10 +2222,12 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2306,12 +2314,16 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>16.5</v>
       </c>
       <c r="C13" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="3"/>
+        <f>1.5+14 +N("Obs.: 14 horas por conta do que foi gastado de horas no final de semana")</f>
+        <v>15.5</v>
+      </c>
+      <c r="D13" s="3">
+        <f>1 + N("Obs.: rodar o projeto")</f>
+        <v>1</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2338,89 +2350,92 @@
       </c>
       <c r="B14" s="5">
         <f>B15</f>
-        <v>367.5</v>
+        <v>294</v>
       </c>
       <c r="C14" s="3">
         <f>B15-SUM(C4:C13)</f>
-        <v>364.75</v>
+        <v>277.25</v>
       </c>
       <c r="D14" s="3">
         <f>C14-SUM(D4:D13)</f>
-        <v>364.75</v>
+        <v>272.25</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" ref="E14:V14" si="1">D14-SUM(E4:E13)</f>
-        <v>364.75</v>
+        <f t="shared" ref="E14:W14" si="1">D14-SUM(E4:E13)</f>
+        <v>268.62</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
+        <v>268.62</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>364.75</v>
-      </c>
-      <c r="W14" s="3"/>
+        <v>268.62</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="1"/>
+        <v>268.62</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -2428,87 +2443,87 @@
       </c>
       <c r="B15" s="10">
         <f>Tempo!B6</f>
-        <v>367.5</v>
+        <v>294</v>
       </c>
       <c r="C15" s="3">
         <f>B15-B24</f>
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="D15" s="3">
         <f>C15-B24</f>
-        <v>332.5</v>
+        <v>266</v>
       </c>
       <c r="E15" s="3">
         <f>D15-B24</f>
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="F15" s="3">
         <f>E15-B24</f>
-        <v>297.5</v>
+        <v>238</v>
       </c>
       <c r="G15" s="3">
         <f>F15-B24</f>
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="H15" s="3">
         <f>G15-B24</f>
-        <v>262.5</v>
+        <v>210</v>
       </c>
       <c r="I15" s="3">
         <f>H15-B24</f>
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="J15" s="3">
         <f>I15-B24</f>
-        <v>227.5</v>
+        <v>182</v>
       </c>
       <c r="K15" s="3">
         <f>J15-B24</f>
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="L15" s="3">
         <f>K15-B24</f>
-        <v>192.5</v>
+        <v>154</v>
       </c>
       <c r="M15" s="3">
         <f>L15-B24</f>
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="N15" s="3">
         <f>M15-B24</f>
-        <v>157.5</v>
+        <v>126</v>
       </c>
       <c r="O15" s="3">
         <f>N15-B24</f>
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="P15" s="3">
         <f>O15-B24</f>
-        <v>122.5</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="3">
         <f>P15-B24</f>
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="R15" s="3">
         <f>Q15-B24</f>
-        <v>87.5</v>
+        <v>70</v>
       </c>
       <c r="S15" s="3">
         <f>R15-B24</f>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="T15" s="3">
         <f>S15-B24</f>
-        <v>52.5</v>
+        <v>42</v>
       </c>
       <c r="U15" s="3">
         <f>T15-B24</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="V15" s="3">
         <f>U15-B24</f>
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="W15" s="3">
         <f>IF(V15-B24&lt;0,0,V15-B24)</f>
@@ -2595,7 +2610,7 @@
       </c>
       <c r="B24" s="9">
         <f>B15/B22</f>
-        <v>17.5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF07B9-56F1-472B-A510-EB7F658AB217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9142FB-B311-4994-AD05-0290BD24CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,58 +488,58 @@
                   <c:v>268.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>268.62</c:v>
+                  <c:v>266.29000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,15 +1507,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>65163</xdr:colOff>
+      <xdr:colOff>246138</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>13454</xdr:rowOff>
+      <xdr:rowOff>22979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>506943</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>155272</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78318</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2872</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1851,7 +1851,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+      <selection pane="topRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2254,12 +2254,15 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <f>2.33</f>
+        <v>2.33</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2366,75 +2369,75 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>268.62</v>
+        <v>266.29000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9142FB-B311-4994-AD05-0290BD24CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A162C66-D614-4BFE-9AF7-BD85D8597FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -350,17 +350,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,55 +485,55 @@
                   <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>262.29000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,13 +1747,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="22"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="11">
         <v>50</v>
       </c>
     </row>
@@ -1767,7 +1761,7 @@
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="11">
         <v>7</v>
       </c>
     </row>
@@ -1775,7 +1769,7 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1783,7 +1777,7 @@
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="11">
         <v>21</v>
       </c>
     </row>
@@ -1791,7 +1785,7 @@
       <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="11">
         <f>B3*B4*B5</f>
         <v>294</v>
       </c>
@@ -1804,7 +1798,7 @@
       <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="11">
         <f>B2*B6</f>
         <v>14700</v>
       </c>
@@ -1817,7 +1811,7 @@
       <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="11">
         <f>B6*4</f>
         <v>1176</v>
       </c>
@@ -1830,7 +1824,7 @@
       <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="11">
         <f>B7*4</f>
         <v>58800</v>
       </c>
@@ -1851,7 +1845,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D22" sqref="D22"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1864,39 +1858,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1962,8 +1956,8 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -2094,7 +2088,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>3.63</v>
+        <v>7.63</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2103,7 +2097,10 @@
         <v>3.63</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <f>4</f>
+        <v>4</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2373,71 +2370,71 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>262.29000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2597,7 +2594,7 @@
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="12">

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A162C66-D614-4BFE-9AF7-BD85D8597FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB365D3-6A1E-47B4-BC53-31010A4B5995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,55 +485,55 @@
                   <c:v>266.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>262.29000000000002</c:v>
+                  <c:v>258.29000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,7 +1845,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E23" sqref="E23"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="C13" s="3">
         <f>1.5+14 +N("Obs.: 14 horas por conta do que foi gastado de horas no final de semana")</f>
@@ -2326,7 +2326,9 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2370,71 +2372,71 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>262.29000000000002</v>
+        <v>258.29000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB365D3-6A1E-47B4-BC53-31010A4B5995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E271F4-0859-493D-8A7B-4066929366DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,52 +488,52 @@
                   <c:v>258.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>242.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>235.29000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,7 +1845,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>7.63</v>
+        <v>14.629999999999999</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2102,7 +2102,9 @@
         <v>4</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>7</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2314,7 +2316,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>36.5</v>
       </c>
       <c r="C13" s="3">
         <f>1.5+14 +N("Obs.: 14 horas por conta do que foi gastado de horas no final de semana")</f>
@@ -2329,7 +2331,9 @@
       <c r="G13" s="3">
         <v>4</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>16</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2376,67 +2380,67 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>242.29000000000002</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>235.29000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E271F4-0859-493D-8A7B-4066929366DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01EF30D-3434-40C8-A35B-6A112E6F4FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,46 +494,46 @@
                   <c:v>235.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>234.79000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,7 +1845,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E25" sqref="E25"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>14.629999999999999</v>
+        <v>15.129999999999999</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2105,7 +2105,9 @@
       <c r="I6" s="3">
         <v>7</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>0.5</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -2388,59 +2390,59 @@
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>234.79000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01EF30D-3434-40C8-A35B-6A112E6F4FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C659ACA-AF84-465A-A797-651116D30865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Atividades</t>
   </si>
@@ -142,21 +142,6 @@
     <t>Horas reais</t>
   </si>
   <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Tarefas difíceis</t>
-  </si>
-  <si>
-    <t>Tarefas medianas</t>
-  </si>
-  <si>
-    <t>Tarefas fáceis</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
     <t>Dias da sprint</t>
   </si>
   <si>
@@ -185,6 +170,12 @@
   </si>
   <si>
     <t>Total custo projeto</t>
+  </si>
+  <si>
+    <t>Equipe</t>
+  </si>
+  <si>
+    <t>Integrante</t>
   </si>
 </sst>
 </file>
@@ -209,7 +200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,25 +239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,22 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,6 +317,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,67 +433,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>277.25</c:v>
+                  <c:v>83.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272.25</c:v>
+                  <c:v>78.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268.62</c:v>
+                  <c:v>74.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>266.29000000000002</c:v>
+                  <c:v>72.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258.29000000000002</c:v>
+                  <c:v>64.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>242.29000000000002</c:v>
+                  <c:v>48.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>235.29000000000002</c:v>
+                  <c:v>41.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>40.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>234.79000000000002</c:v>
+                  <c:v>29.790000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,67 +530,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>280</c:v>
+                  <c:v>95.238095238095241</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>266</c:v>
+                  <c:v>90.476190476190482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>252</c:v>
+                  <c:v>85.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>238</c:v>
+                  <c:v>80.952380952380963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>224</c:v>
+                  <c:v>76.190476190476204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
+                  <c:v>71.428571428571445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>196</c:v>
+                  <c:v>66.666666666666686</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>182</c:v>
+                  <c:v>61.904761904761926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>57.142857142857167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>154</c:v>
+                  <c:v>52.380952380952408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>140</c:v>
+                  <c:v>47.619047619047649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126</c:v>
+                  <c:v>42.85714285714289</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112</c:v>
+                  <c:v>38.09523809523813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98</c:v>
+                  <c:v>33.333333333333371</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84</c:v>
+                  <c:v>28.571428571428608</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70</c:v>
+                  <c:v>23.809523809523846</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56</c:v>
+                  <c:v>19.047619047619083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42</c:v>
+                  <c:v>14.28571428571432</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28</c:v>
+                  <c:v>9.5238095238095575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>4.7619047619047956</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3.3750779948604759E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,12 +1463,12 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>246138</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>22979</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>78318</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>2872</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1738,100 +1698,111 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="11"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="17">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="C4" s="12">
+        <f>B4/7</f>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B5" s="12">
+        <f>B2*B4</f>
+        <v>5000</v>
+      </c>
+      <c r="C5" s="12">
+        <f>B5/7</f>
+        <v>714.28571428571433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B6" s="12">
+        <f>B4*4</f>
+        <v>400</v>
+      </c>
+      <c r="C6" s="12">
+        <f>B6/7</f>
+        <v>57.142857142857146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="B7" s="12">
+        <f>B5*4</f>
+        <v>20000</v>
+      </c>
+      <c r="C7" s="12">
+        <f>B7/7</f>
+        <v>2857.1428571428573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12">
+        <f>B4/B3</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="11">
-        <f>B3*B4*B5</f>
-        <v>294</v>
-      </c>
-      <c r="C6">
-        <f>B6/7</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="11">
-        <f>B2*B6</f>
-        <v>14700</v>
-      </c>
-      <c r="C7">
-        <f>B7/7</f>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="11">
-        <f>B6*4</f>
-        <v>1176</v>
-      </c>
-      <c r="C8">
-        <f>B8/7</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="11">
-        <f>B7*4</f>
-        <v>58800</v>
-      </c>
-      <c r="C9">
-        <f>B9/7</f>
-        <v>8400</v>
-      </c>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1841,11 +1812,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B4BA60-9604-4D54-BDB3-BA720851CBCD}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1858,39 +1829,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1956,8 +1927,8 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -2318,7 +2289,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>47.5</v>
       </c>
       <c r="C13" s="3">
         <f>1.5+14 +N("Obs.: 14 horas por conta do que foi gastado de horas no final de semana")</f>
@@ -2338,7 +2309,9 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>11</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -2358,91 +2331,91 @@
       </c>
       <c r="B14" s="5">
         <f>B15</f>
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="C14" s="3">
         <f>B15-SUM(C4:C13)</f>
-        <v>277.25</v>
+        <v>83.25</v>
       </c>
       <c r="D14" s="3">
         <f>C14-SUM(D4:D13)</f>
-        <v>272.25</v>
+        <v>78.25</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ref="E14:W14" si="1">D14-SUM(E4:E13)</f>
-        <v>268.62</v>
+        <v>74.62</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>266.29000000000002</v>
+        <v>72.290000000000006</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>258.29000000000002</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>242.29000000000002</v>
+        <v>48.290000000000006</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>235.29000000000002</v>
+        <v>41.290000000000006</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>40.790000000000006</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>234.79000000000002</v>
+        <v>29.790000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2450,175 +2423,118 @@
         <v>34</v>
       </c>
       <c r="B15" s="10">
-        <f>Tempo!B6</f>
-        <v>294</v>
+        <f>Tempo!B4</f>
+        <v>100</v>
       </c>
       <c r="C15" s="3">
-        <f>B15-B24</f>
-        <v>280</v>
+        <f>B15-B20</f>
+        <v>95.238095238095241</v>
       </c>
       <c r="D15" s="3">
-        <f>C15-B24</f>
-        <v>266</v>
+        <f>C15-B20</f>
+        <v>90.476190476190482</v>
       </c>
       <c r="E15" s="3">
-        <f>D15-B24</f>
-        <v>252</v>
+        <f>D15-B20</f>
+        <v>85.714285714285722</v>
       </c>
       <c r="F15" s="3">
-        <f>E15-B24</f>
-        <v>238</v>
+        <f>E15-B20</f>
+        <v>80.952380952380963</v>
       </c>
       <c r="G15" s="3">
-        <f>F15-B24</f>
-        <v>224</v>
+        <f>F15-B20</f>
+        <v>76.190476190476204</v>
       </c>
       <c r="H15" s="3">
-        <f>G15-B24</f>
-        <v>210</v>
+        <f>G15-B20</f>
+        <v>71.428571428571445</v>
       </c>
       <c r="I15" s="3">
-        <f>H15-B24</f>
-        <v>196</v>
+        <f>H15-B20</f>
+        <v>66.666666666666686</v>
       </c>
       <c r="J15" s="3">
-        <f>I15-B24</f>
-        <v>182</v>
+        <f>I15-B20</f>
+        <v>61.904761904761926</v>
       </c>
       <c r="K15" s="3">
-        <f>J15-B24</f>
-        <v>168</v>
+        <f>J15-B20</f>
+        <v>57.142857142857167</v>
       </c>
       <c r="L15" s="3">
-        <f>K15-B24</f>
-        <v>154</v>
+        <f>K15-B20</f>
+        <v>52.380952380952408</v>
       </c>
       <c r="M15" s="3">
-        <f>L15-B24</f>
-        <v>140</v>
+        <f>L15-B20</f>
+        <v>47.619047619047649</v>
       </c>
       <c r="N15" s="3">
-        <f>M15-B24</f>
-        <v>126</v>
+        <f>M15-B20</f>
+        <v>42.85714285714289</v>
       </c>
       <c r="O15" s="3">
-        <f>N15-B24</f>
-        <v>112</v>
+        <f>N15-B20</f>
+        <v>38.09523809523813</v>
       </c>
       <c r="P15" s="3">
-        <f>O15-B24</f>
-        <v>98</v>
+        <f>O15-B20</f>
+        <v>33.333333333333371</v>
       </c>
       <c r="Q15" s="3">
-        <f>P15-B24</f>
-        <v>84</v>
+        <f>P15-B20</f>
+        <v>28.571428571428608</v>
       </c>
       <c r="R15" s="3">
-        <f>Q15-B24</f>
-        <v>70</v>
+        <f>Q15-B20</f>
+        <v>23.809523809523846</v>
       </c>
       <c r="S15" s="3">
-        <f>R15-B24</f>
-        <v>56</v>
+        <f>R15-B20</f>
+        <v>19.047619047619083</v>
       </c>
       <c r="T15" s="3">
-        <f>S15-B24</f>
-        <v>42</v>
+        <f>S15-B20</f>
+        <v>14.28571428571432</v>
       </c>
       <c r="U15" s="3">
-        <f>T15-B24</f>
-        <v>28</v>
+        <f>T15-B20</f>
+        <v>9.5238095238095575</v>
       </c>
       <c r="V15" s="3">
-        <f>U15-B24</f>
-        <v>14</v>
+        <f>U15-B20</f>
+        <v>4.7619047619047956</v>
       </c>
       <c r="W15" s="3">
-        <f>IF(V15-B24&lt;0,0,V15-B24)</f>
-        <v>0</v>
+        <f>IF(V15-B20&lt;0,0,V15-B20)</f>
+        <v>3.3750779948604759E-14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="B18" s="12">
-        <v>5</v>
-      </c>
-      <c r="C18" s="12">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <f>B18*C18</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="12">
-        <v>5</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" ref="D19:D20" si="2">B19*C19</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="12">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="12">
         <f>COUNTA(C3:W3)</f>
         <v>21</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="9">
-        <f>B15/B22</f>
-        <v>14</v>
+      <c r="C18" s="13"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="9">
+        <f>B15/B18</f>
+        <v>4.7619047619047619</v>
       </c>
     </row>
   </sheetData>

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C659ACA-AF84-465A-A797-651116D30865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBAABE2-5239-44D6-830E-5FE200535FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,13 +313,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,6 +426,144 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sprint 0'!$C$2:$W$3</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>29/08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>30/08</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>31/08</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>01/09</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>02/09</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>03/09</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>04/09</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>05/09</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>06/09</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>07/09</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>08/09</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>09/09</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>10/09</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>11/09</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12/09</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>13/09</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>14/09</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>15/09</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>16/09</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>17/09</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>18/09</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sprint 0'!$C$14:$W$14</c:f>
@@ -433,67 +571,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>83.25</c:v>
+                  <c:v>133.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.25</c:v>
+                  <c:v>128.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.62</c:v>
+                  <c:v>124.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.290000000000006</c:v>
+                  <c:v>122.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.290000000000006</c:v>
+                  <c:v>114.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.290000000000006</c:v>
+                  <c:v>98.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.290000000000006</c:v>
+                  <c:v>91.29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.790000000000006</c:v>
+                  <c:v>90.79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.790000000000006</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -523,6 +661,144 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sprint 0'!$C$2:$W$3</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>29/08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>30/08</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>31/08</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>01/09</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>02/09</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>03/09</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>04/09</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>05/09</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>06/09</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>07/09</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>08/09</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>09/09</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>10/09</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>11/09</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12/09</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>13/09</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>14/09</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>15/09</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>16/09</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>17/09</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>18/09</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sprint 0'!$C$15:$W$15</c:f>
@@ -530,67 +806,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>95.238095238095241</c:v>
+                  <c:v>142.85714285714286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.476190476190482</c:v>
+                  <c:v>135.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.714285714285722</c:v>
+                  <c:v>128.57142857142858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.952380952380963</c:v>
+                  <c:v>121.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.190476190476204</c:v>
+                  <c:v>114.28571428571431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.428571428571445</c:v>
+                  <c:v>107.14285714285717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.666666666666686</c:v>
+                  <c:v>100.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.904761904761926</c:v>
+                  <c:v>92.85714285714289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.142857142857167</c:v>
+                  <c:v>85.714285714285751</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.380952380952408</c:v>
+                  <c:v>78.571428571428612</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.619047619047649</c:v>
+                  <c:v>71.428571428571473</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.85714285714289</c:v>
+                  <c:v>64.285714285714334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.09523809523813</c:v>
+                  <c:v>57.142857142857189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.333333333333371</c:v>
+                  <c:v>50.000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>42.857142857142897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.714285714285751</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>28.571428571428608</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.809523809523846</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.047619047619083</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.28571428571432</c:v>
+                  <c:v>21.428571428571466</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5238095238095575</c:v>
+                  <c:v>14.285714285714324</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7619047619047956</c:v>
+                  <c:v>7.1428571428571805</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3750779948604759E-14</c:v>
+                  <c:v>3.730349362740526E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,6 +897,34 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -674,6 +978,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -753,8 +1058,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>Quantidade de tarefas</a:t>
+                  <a:t>Quantidade de</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> esforço</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1461,15 +1771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>246138</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>36588</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>78318</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2872</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1698,7 +2008,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1734,16 +2044,15 @@
       <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="17">
-        <f>100</f>
-        <v>100</v>
+      <c r="B4" s="15">
+        <v>150</v>
       </c>
       <c r="C4" s="12">
         <f>B4/7</f>
-        <v>14.285714285714286</v>
+        <v>21.428571428571427</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1752,11 +2061,11 @@
       </c>
       <c r="B5" s="12">
         <f>B2*B4</f>
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="C5" s="12">
         <f>B5/7</f>
-        <v>714.28571428571433</v>
+        <v>1071.4285714285713</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1765,11 +2074,11 @@
       </c>
       <c r="B6" s="12">
         <f>B4*4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C6" s="12">
         <f>B6/7</f>
-        <v>57.142857142857146</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1778,11 +2087,11 @@
       </c>
       <c r="B7" s="12">
         <f>B5*4</f>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C7" s="12">
         <f>B7/7</f>
-        <v>2857.1428571428573</v>
+        <v>4285.7142857142853</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1790,10 +2099,13 @@
         <v>40</v>
       </c>
       <c r="B8" s="12">
-        <f>B4/B3</f>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="C8" s="12"/>
+        <f>B4/B9</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="C8" s="12">
+        <f>B8/7</f>
+        <v>1.0204081632653061</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
@@ -1814,9 +2126,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1829,39 +2141,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1927,8 +2239,8 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -2331,91 +2643,91 @@
       </c>
       <c r="B14" s="5">
         <f>B15</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3">
         <f>B15-SUM(C4:C13)</f>
-        <v>83.25</v>
+        <v>133.25</v>
       </c>
       <c r="D14" s="3">
         <f>C14-SUM(D4:D13)</f>
-        <v>78.25</v>
+        <v>128.25</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ref="E14:W14" si="1">D14-SUM(E4:E13)</f>
-        <v>74.62</v>
+        <v>124.62</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>72.290000000000006</v>
+        <v>122.29</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>64.290000000000006</v>
+        <v>114.29</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>48.290000000000006</v>
+        <v>98.29</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>41.290000000000006</v>
+        <v>91.29</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>40.790000000000006</v>
+        <v>90.79</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>29.790000000000006</v>
+        <v>79.790000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2424,91 +2736,91 @@
       </c>
       <c r="B15" s="10">
         <f>Tempo!B4</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3">
         <f>B15-B20</f>
-        <v>95.238095238095241</v>
+        <v>142.85714285714286</v>
       </c>
       <c r="D15" s="3">
         <f>C15-B20</f>
-        <v>90.476190476190482</v>
+        <v>135.71428571428572</v>
       </c>
       <c r="E15" s="3">
         <f>D15-B20</f>
-        <v>85.714285714285722</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="F15" s="3">
         <f>E15-B20</f>
-        <v>80.952380952380963</v>
+        <v>121.42857142857144</v>
       </c>
       <c r="G15" s="3">
         <f>F15-B20</f>
-        <v>76.190476190476204</v>
+        <v>114.28571428571431</v>
       </c>
       <c r="H15" s="3">
         <f>G15-B20</f>
-        <v>71.428571428571445</v>
+        <v>107.14285714285717</v>
       </c>
       <c r="I15" s="3">
         <f>H15-B20</f>
-        <v>66.666666666666686</v>
+        <v>100.00000000000003</v>
       </c>
       <c r="J15" s="3">
         <f>I15-B20</f>
-        <v>61.904761904761926</v>
+        <v>92.85714285714289</v>
       </c>
       <c r="K15" s="3">
         <f>J15-B20</f>
-        <v>57.142857142857167</v>
+        <v>85.714285714285751</v>
       </c>
       <c r="L15" s="3">
         <f>K15-B20</f>
-        <v>52.380952380952408</v>
+        <v>78.571428571428612</v>
       </c>
       <c r="M15" s="3">
         <f>L15-B20</f>
-        <v>47.619047619047649</v>
+        <v>71.428571428571473</v>
       </c>
       <c r="N15" s="3">
         <f>M15-B20</f>
-        <v>42.85714285714289</v>
+        <v>64.285714285714334</v>
       </c>
       <c r="O15" s="3">
         <f>N15-B20</f>
-        <v>38.09523809523813</v>
+        <v>57.142857142857189</v>
       </c>
       <c r="P15" s="3">
         <f>O15-B20</f>
-        <v>33.333333333333371</v>
+        <v>50.000000000000043</v>
       </c>
       <c r="Q15" s="3">
         <f>P15-B20</f>
-        <v>28.571428571428608</v>
+        <v>42.857142857142897</v>
       </c>
       <c r="R15" s="3">
         <f>Q15-B20</f>
-        <v>23.809523809523846</v>
+        <v>35.714285714285751</v>
       </c>
       <c r="S15" s="3">
         <f>R15-B20</f>
-        <v>19.047619047619083</v>
+        <v>28.571428571428608</v>
       </c>
       <c r="T15" s="3">
         <f>S15-B20</f>
-        <v>14.28571428571432</v>
+        <v>21.428571428571466</v>
       </c>
       <c r="U15" s="3">
         <f>T15-B20</f>
-        <v>9.5238095238095575</v>
+        <v>14.285714285714324</v>
       </c>
       <c r="V15" s="3">
         <f>U15-B20</f>
-        <v>4.7619047619047956</v>
+        <v>7.1428571428571805</v>
       </c>
       <c r="W15" s="3">
         <f>IF(V15-B20&lt;0,0,V15-B20)</f>
-        <v>3.3750779948604759E-14</v>
+        <v>3.730349362740526E-14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2534,7 +2846,7 @@
       </c>
       <c r="B20" s="9">
         <f>B15/B18</f>
-        <v>4.7619047619047619</v>
+        <v>7.1428571428571432</v>
       </c>
     </row>
   </sheetData>

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBAABE2-5239-44D6-830E-5FE200535FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC3DE4-131D-4DFC-B270-BA8F2F98E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,37 +601,37 @@
                   <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,9 +2126,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M48" sqref="M48"/>
+      <selection pane="topRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>51.31</v>
       </c>
       <c r="C13" s="3">
         <f>1.5+14 +N("Obs.: 14 horas por conta do que foi gastado de horas no final de semana")</f>
@@ -2625,7 +2625,10 @@
         <v>11</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <f>3.81</f>
+        <v>3.81</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2687,47 +2690,47 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>75.98</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC3DE4-131D-4DFC-B270-BA8F2F98E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C579379-F6DE-4B9D-AFC4-0A84AF886DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,7 +342,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -607,31 +607,31 @@
                   <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.98</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.98</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.98</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75.98</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.98</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75.98</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75.98</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.98</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75.98</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,9 +2126,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>15.129999999999999</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2395,7 +2395,9 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>3.61</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -2698,39 +2700,39 @@
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>72.37</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>72.37</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>72.37</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>72.37</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>72.37</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>72.37</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>72.37</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>72.37</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>72.37</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C579379-F6DE-4B9D-AFC4-0A84AF886DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634C0F9E-8B4B-4E32-9D2F-926BA5879CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,31 +607,31 @@
                   <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.37</c:v>
+                  <c:v>50.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72.37</c:v>
+                  <c:v>50.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.37</c:v>
+                  <c:v>50.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.37</c:v>
+                  <c:v>50.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.37</c:v>
+                  <c:v>50.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.37</c:v>
+                  <c:v>50.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72.37</c:v>
+                  <c:v>50.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.37</c:v>
+                  <c:v>50.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72.37</c:v>
+                  <c:v>50.290000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,16 +1770,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>36588</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>131838</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2126,9 +2126,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>51.31</v>
+        <v>73.39</v>
       </c>
       <c r="C13" s="3">
         <f>1.5+14 +N("Obs.: 14 horas por conta do que foi gastado de horas no final de semana")</f>
@@ -2632,7 +2632,9 @@
         <v>3.81</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>22.08</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -2700,39 +2702,39 @@
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>72.37</v>
+        <v>50.290000000000006</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>72.37</v>
+        <v>50.290000000000006</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>72.37</v>
+        <v>50.290000000000006</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>72.37</v>
+        <v>50.290000000000006</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>72.37</v>
+        <v>50.290000000000006</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>72.37</v>
+        <v>50.290000000000006</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>72.37</v>
+        <v>50.290000000000006</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>72.37</v>
+        <v>50.290000000000006</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>72.37</v>
+        <v>50.290000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\repositories\api-6-semestre\docs\management\Burndown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634C0F9E-8B4B-4E32-9D2F-926BA5879CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAF88CE-2FB0-4234-AE19-C259B4D92642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,31 +607,31 @@
                   <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.290000000000006</c:v>
+                  <c:v>42.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.290000000000006</c:v>
+                  <c:v>42.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.290000000000006</c:v>
+                  <c:v>42.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.290000000000006</c:v>
+                  <c:v>42.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.290000000000006</c:v>
+                  <c:v>42.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.290000000000006</c:v>
+                  <c:v>42.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.290000000000006</c:v>
+                  <c:v>42.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.290000000000006</c:v>
+                  <c:v>42.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.290000000000006</c:v>
+                  <c:v>42.290000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,15 +1771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>131838</xdr:colOff>
+      <xdr:colOff>217563</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2126,9 +2126,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>18.739999999999998</v>
+        <v>26.74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2396,7 +2396,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3">
-        <v>3.61</v>
+        <v>11.61</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -2702,39 +2702,39 @@
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>50.290000000000006</v>
+        <v>42.290000000000006</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>50.290000000000006</v>
+        <v>42.290000000000006</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>50.290000000000006</v>
+        <v>42.290000000000006</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>50.290000000000006</v>
+        <v>42.290000000000006</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>50.290000000000006</v>
+        <v>42.290000000000006</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>50.290000000000006</v>
+        <v>42.290000000000006</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>50.290000000000006</v>
+        <v>42.290000000000006</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>50.290000000000006</v>
+        <v>42.290000000000006</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>50.290000000000006</v>
+        <v>42.290000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAF88CE-2FB0-4234-AE19-C259B4D92642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF67FDB-A92F-4AB1-82D5-C3F2CD4B44BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,67 +571,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>133.25</c:v>
+                  <c:v>153.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128.25</c:v>
+                  <c:v>148.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124.62</c:v>
+                  <c:v>144.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.29</c:v>
+                  <c:v>142.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114.29</c:v>
+                  <c:v>134.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.29</c:v>
+                  <c:v>118.28999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.29</c:v>
+                  <c:v>111.28999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.79</c:v>
+                  <c:v>110.78999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>99.789999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.790000000000006</c:v>
+                  <c:v>99.789999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.98</c:v>
+                  <c:v>95.97999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.98</c:v>
+                  <c:v>95.97999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.290000000000006</c:v>
+                  <c:v>62.289999999999992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.290000000000006</c:v>
+                  <c:v>50.859999999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.290000000000006</c:v>
+                  <c:v>42.259999999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.290000000000006</c:v>
+                  <c:v>38.259999999999991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.290000000000006</c:v>
+                  <c:v>38.259999999999991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.290000000000006</c:v>
+                  <c:v>38.259999999999991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.290000000000006</c:v>
+                  <c:v>38.259999999999991</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.290000000000006</c:v>
+                  <c:v>38.259999999999991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.290000000000006</c:v>
+                  <c:v>38.259999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,67 +806,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>142.85714285714286</c:v>
+                  <c:v>161.9047619047619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135.71428571428572</c:v>
+                  <c:v>153.8095238095238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.57142857142858</c:v>
+                  <c:v>145.71428571428569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121.42857142857144</c:v>
+                  <c:v>137.61904761904759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114.28571428571431</c:v>
+                  <c:v>129.52380952380949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107.14285714285717</c:v>
+                  <c:v>121.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.00000000000003</c:v>
+                  <c:v>113.33333333333329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92.85714285714289</c:v>
+                  <c:v>105.23809523809518</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.714285714285751</c:v>
+                  <c:v>97.142857142857082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.571428571428612</c:v>
+                  <c:v>89.04761904761898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.428571428571473</c:v>
+                  <c:v>80.952380952380878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64.285714285714334</c:v>
+                  <c:v>72.857142857142776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.142857142857189</c:v>
+                  <c:v>64.761904761904674</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.000000000000043</c:v>
+                  <c:v>56.666666666666579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.857142857142897</c:v>
+                  <c:v>48.571428571428484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.714285714285751</c:v>
+                  <c:v>40.476190476190389</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.571428571428608</c:v>
+                  <c:v>32.380952380952294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.428571428571466</c:v>
+                  <c:v>24.285714285714199</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.285714285714324</c:v>
+                  <c:v>16.190476190476105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1428571428571805</c:v>
+                  <c:v>8.0952380952380096</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.730349362740526E-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2048,11 +2048,11 @@
         <v>42</v>
       </c>
       <c r="B4" s="15">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C4" s="12">
         <f>B4/7</f>
-        <v>21.428571428571427</v>
+        <v>24.285714285714285</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2061,11 +2061,11 @@
       </c>
       <c r="B5" s="12">
         <f>B2*B4</f>
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="C5" s="12">
         <f>B5/7</f>
-        <v>1071.4285714285713</v>
+        <v>1214.2857142857142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2074,11 +2074,11 @@
       </c>
       <c r="B6" s="12">
         <f>B4*4</f>
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="C6" s="12">
         <f>B6/7</f>
-        <v>85.714285714285708</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2087,11 +2087,11 @@
       </c>
       <c r="B7" s="12">
         <f>B5*4</f>
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="C7" s="12">
         <f>B7/7</f>
-        <v>4285.7142857142853</v>
+        <v>4857.1428571428569</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2100,11 +2100,11 @@
       </c>
       <c r="B8" s="12">
         <f>B4/B9</f>
-        <v>7.1428571428571432</v>
+        <v>8.0952380952380949</v>
       </c>
       <c r="C8" s="12">
         <f>B8/7</f>
-        <v>1.0204081632653061</v>
+        <v>1.1564625850340136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2128,7 +2128,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S24" sqref="S24"/>
+      <selection pane="topRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>26.74</v>
+        <v>50.77</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2398,9 +2398,15 @@
       <c r="O6" s="3">
         <v>11.61</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="P6" s="3">
+        <v>11.43</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="R6" s="3">
+        <v>4</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2650,91 +2656,91 @@
       </c>
       <c r="B14" s="5">
         <f>B15</f>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C14" s="3">
         <f>B15-SUM(C4:C13)</f>
-        <v>133.25</v>
+        <v>153.25</v>
       </c>
       <c r="D14" s="3">
         <f>C14-SUM(D4:D13)</f>
-        <v>128.25</v>
+        <v>148.25</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ref="E14:W14" si="1">D14-SUM(E4:E13)</f>
-        <v>124.62</v>
+        <v>144.62</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>122.29</v>
+        <v>142.29</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>114.29</v>
+        <v>134.29</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>98.29</v>
+        <v>118.28999999999999</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>91.29</v>
+        <v>111.28999999999999</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>90.79</v>
+        <v>110.78999999999999</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>99.789999999999992</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>79.790000000000006</v>
+        <v>99.789999999999992</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>95.97999999999999</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>75.98</v>
+        <v>95.97999999999999</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>42.290000000000006</v>
+        <v>62.289999999999992</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>42.290000000000006</v>
+        <v>50.859999999999992</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>42.290000000000006</v>
+        <v>42.259999999999991</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>42.290000000000006</v>
+        <v>38.259999999999991</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>42.290000000000006</v>
+        <v>38.259999999999991</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>42.290000000000006</v>
+        <v>38.259999999999991</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>42.290000000000006</v>
+        <v>38.259999999999991</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>42.290000000000006</v>
+        <v>38.259999999999991</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>42.290000000000006</v>
+        <v>38.259999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2743,91 +2749,91 @@
       </c>
       <c r="B15" s="10">
         <f>Tempo!B4</f>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C15" s="3">
         <f>B15-B20</f>
-        <v>142.85714285714286</v>
+        <v>161.9047619047619</v>
       </c>
       <c r="D15" s="3">
         <f>C15-B20</f>
-        <v>135.71428571428572</v>
+        <v>153.8095238095238</v>
       </c>
       <c r="E15" s="3">
         <f>D15-B20</f>
-        <v>128.57142857142858</v>
+        <v>145.71428571428569</v>
       </c>
       <c r="F15" s="3">
         <f>E15-B20</f>
-        <v>121.42857142857144</v>
+        <v>137.61904761904759</v>
       </c>
       <c r="G15" s="3">
         <f>F15-B20</f>
-        <v>114.28571428571431</v>
+        <v>129.52380952380949</v>
       </c>
       <c r="H15" s="3">
         <f>G15-B20</f>
-        <v>107.14285714285717</v>
+        <v>121.42857142857139</v>
       </c>
       <c r="I15" s="3">
         <f>H15-B20</f>
-        <v>100.00000000000003</v>
+        <v>113.33333333333329</v>
       </c>
       <c r="J15" s="3">
         <f>I15-B20</f>
-        <v>92.85714285714289</v>
+        <v>105.23809523809518</v>
       </c>
       <c r="K15" s="3">
         <f>J15-B20</f>
-        <v>85.714285714285751</v>
+        <v>97.142857142857082</v>
       </c>
       <c r="L15" s="3">
         <f>K15-B20</f>
-        <v>78.571428571428612</v>
+        <v>89.04761904761898</v>
       </c>
       <c r="M15" s="3">
         <f>L15-B20</f>
-        <v>71.428571428571473</v>
+        <v>80.952380952380878</v>
       </c>
       <c r="N15" s="3">
         <f>M15-B20</f>
-        <v>64.285714285714334</v>
+        <v>72.857142857142776</v>
       </c>
       <c r="O15" s="3">
         <f>N15-B20</f>
-        <v>57.142857142857189</v>
+        <v>64.761904761904674</v>
       </c>
       <c r="P15" s="3">
         <f>O15-B20</f>
-        <v>50.000000000000043</v>
+        <v>56.666666666666579</v>
       </c>
       <c r="Q15" s="3">
         <f>P15-B20</f>
-        <v>42.857142857142897</v>
+        <v>48.571428571428484</v>
       </c>
       <c r="R15" s="3">
         <f>Q15-B20</f>
-        <v>35.714285714285751</v>
+        <v>40.476190476190389</v>
       </c>
       <c r="S15" s="3">
         <f>R15-B20</f>
-        <v>28.571428571428608</v>
+        <v>32.380952380952294</v>
       </c>
       <c r="T15" s="3">
         <f>S15-B20</f>
-        <v>21.428571428571466</v>
+        <v>24.285714285714199</v>
       </c>
       <c r="U15" s="3">
         <f>T15-B20</f>
-        <v>14.285714285714324</v>
+        <v>16.190476190476105</v>
       </c>
       <c r="V15" s="3">
         <f>U15-B20</f>
-        <v>7.1428571428571805</v>
+        <v>8.0952380952380096</v>
       </c>
       <c r="W15" s="3">
         <f>IF(V15-B20&lt;0,0,V15-B20)</f>
-        <v>3.730349362740526E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2853,7 +2859,7 @@
       </c>
       <c r="B20" s="9">
         <f>B15/B18</f>
-        <v>7.1428571428571432</v>
+        <v>8.0952380952380949</v>
       </c>
     </row>
   </sheetData>

--- a/docs/management/Burndown/Burndown.xlsx
+++ b/docs/management/Burndown/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\api-6-semestre\docs\management\Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF67FDB-A92F-4AB1-82D5-C3F2CD4B44BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F4CFA-E31E-4E12-B793-E3515A79CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,67 +571,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>153.25</c:v>
+                  <c:v>133.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.25</c:v>
+                  <c:v>128.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144.62</c:v>
+                  <c:v>124.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.29</c:v>
+                  <c:v>122.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.29</c:v>
+                  <c:v>114.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.28999999999999</c:v>
+                  <c:v>98.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111.28999999999999</c:v>
+                  <c:v>91.29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110.78999999999999</c:v>
+                  <c:v>90.79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99.789999999999992</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.789999999999992</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95.97999999999999</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>95.97999999999999</c:v>
+                  <c:v>75.98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62.289999999999992</c:v>
+                  <c:v>42.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.859999999999992</c:v>
+                  <c:v>30.860000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.259999999999991</c:v>
+                  <c:v>22.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.259999999999991</c:v>
+                  <c:v>18.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.259999999999991</c:v>
+                  <c:v>18.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.259999999999991</c:v>
+                  <c:v>18.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.259999999999991</c:v>
+                  <c:v>18.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.259999999999991</c:v>
+                  <c:v>18.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.259999999999991</c:v>
+                  <c:v>18.260000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,67 +806,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>161.9047619047619</c:v>
+                  <c:v>142.85714285714286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.8095238095238</c:v>
+                  <c:v>135.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145.71428571428569</c:v>
+                  <c:v>128.57142857142858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.61904761904759</c:v>
+                  <c:v>121.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129.52380952380949</c:v>
+                  <c:v>114.28571428571431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121.42857142857139</c:v>
+                  <c:v>107.14285714285717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113.33333333333329</c:v>
+                  <c:v>100.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.23809523809518</c:v>
+                  <c:v>92.85714285714289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.142857142857082</c:v>
+                  <c:v>85.714285714285751</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.04761904761898</c:v>
+                  <c:v>78.571428571428612</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.952380952380878</c:v>
+                  <c:v>71.428571428571473</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.857142857142776</c:v>
+                  <c:v>64.285714285714334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.761904761904674</c:v>
+                  <c:v>57.142857142857189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.666666666666579</c:v>
+                  <c:v>70.000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.571428571428484</c:v>
+                  <c:v>62.857142857142897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.476190476190389</c:v>
+                  <c:v>55.714285714285751</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.380952380952294</c:v>
+                  <c:v>48.571428571428605</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.285714285714199</c:v>
+                  <c:v>41.428571428571459</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.190476190476105</c:v>
+                  <c:v>34.285714285714313</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0952380952380096</c:v>
+                  <c:v>27.142857142857171</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>20.000000000000028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,15 +1771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>217563</xdr:colOff>
+      <xdr:colOff>160413</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2048,11 +2048,11 @@
         <v>42</v>
       </c>
       <c r="B4" s="15">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C4" s="12">
         <f>B4/7</f>
-        <v>24.285714285714285</v>
+        <v>21.428571428571427</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2061,11 +2061,11 @@
       </c>
       <c r="B5" s="12">
         <f>B2*B4</f>
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="C5" s="12">
         <f>B5/7</f>
-        <v>1214.2857142857142</v>
+        <v>1071.4285714285713</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2074,11 +2074,11 @@
       </c>
       <c r="B6" s="12">
         <f>B4*4</f>
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="C6" s="12">
         <f>B6/7</f>
-        <v>97.142857142857139</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2087,11 +2087,11 @@
       </c>
       <c r="B7" s="12">
         <f>B5*4</f>
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="C7" s="12">
         <f>B7/7</f>
-        <v>4857.1428571428569</v>
+        <v>4285.7142857142853</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2100,11 +2100,11 @@
       </c>
       <c r="B8" s="12">
         <f>B4/B9</f>
-        <v>8.0952380952380949</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="C8" s="12">
         <f>B8/7</f>
-        <v>1.1564625850340136</v>
+        <v>1.0204081632653061</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2126,9 +2126,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P7" sqref="P7"/>
+      <selection pane="topRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2656,91 +2656,91 @@
       </c>
       <c r="B14" s="5">
         <f>B15</f>
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3">
         <f>B15-SUM(C4:C13)</f>
-        <v>153.25</v>
+        <v>133.25</v>
       </c>
       <c r="D14" s="3">
         <f>C14-SUM(D4:D13)</f>
-        <v>148.25</v>
+        <v>128.25</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ref="E14:W14" si="1">D14-SUM(E4:E13)</f>
-        <v>144.62</v>
+        <v>124.62</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>142.29</v>
+        <v>122.29</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>134.29</v>
+        <v>114.29</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>118.28999999999999</v>
+        <v>98.29</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>111.28999999999999</v>
+        <v>91.29</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>110.78999999999999</v>
+        <v>90.79</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>99.789999999999992</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>99.789999999999992</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>95.97999999999999</v>
+        <v>75.98</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>95.97999999999999</v>
+        <v>75.98</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>62.289999999999992</v>
+        <v>42.290000000000006</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>50.859999999999992</v>
+        <v>30.860000000000007</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="1"/>
-        <v>42.259999999999991</v>
+        <v>22.260000000000005</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="1"/>
-        <v>38.259999999999991</v>
+        <v>18.260000000000005</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="1"/>
-        <v>38.259999999999991</v>
+        <v>18.260000000000005</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="1"/>
-        <v>38.259999999999991</v>
+        <v>18.260000000000005</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>38.259999999999991</v>
+        <v>18.260000000000005</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>38.259999999999991</v>
+        <v>18.260000000000005</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="1"/>
-        <v>38.259999999999991</v>
+        <v>18.260000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2749,91 +2749,91 @@
       </c>
       <c r="B15" s="10">
         <f>Tempo!B4</f>
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3">
         <f>B15-B20</f>
-        <v>161.9047619047619</v>
+        <v>142.85714285714286</v>
       </c>
       <c r="D15" s="3">
         <f>C15-B20</f>
-        <v>153.8095238095238</v>
+        <v>135.71428571428572</v>
       </c>
       <c r="E15" s="3">
         <f>D15-B20</f>
-        <v>145.71428571428569</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="F15" s="3">
         <f>E15-B20</f>
-        <v>137.61904761904759</v>
+        <v>121.42857142857144</v>
       </c>
       <c r="G15" s="3">
         <f>F15-B20</f>
-        <v>129.52380952380949</v>
+        <v>114.28571428571431</v>
       </c>
       <c r="H15" s="3">
         <f>G15-B20</f>
-        <v>121.42857142857139</v>
+        <v>107.14285714285717</v>
       </c>
       <c r="I15" s="3">
         <f>H15-B20</f>
-        <v>113.33333333333329</v>
+        <v>100.00000000000003</v>
       </c>
       <c r="J15" s="3">
         <f>I15-B20</f>
-        <v>105.23809523809518</v>
+        <v>92.85714285714289</v>
       </c>
       <c r="K15" s="3">
         <f>J15-B20</f>
-        <v>97.142857142857082</v>
+        <v>85.714285714285751</v>
       </c>
       <c r="L15" s="3">
         <f>K15-B20</f>
-        <v>89.04761904761898</v>
+        <v>78.571428571428612</v>
       </c>
       <c r="M15" s="3">
         <f>L15-B20</f>
-        <v>80.952380952380878</v>
+        <v>71.428571428571473</v>
       </c>
       <c r="N15" s="3">
         <f>M15-B20</f>
-        <v>72.857142857142776</v>
+        <v>64.285714285714334</v>
       </c>
       <c r="O15" s="3">
         <f>N15-B20</f>
-        <v>64.761904761904674</v>
+        <v>57.142857142857189</v>
       </c>
       <c r="P15" s="3">
-        <f>O15-B20</f>
-        <v>56.666666666666579</v>
+        <f>(O15-B20) + 20</f>
+        <v>70.000000000000043</v>
       </c>
       <c r="Q15" s="3">
         <f>P15-B20</f>
-        <v>48.571428571428484</v>
+        <v>62.857142857142897</v>
       </c>
       <c r="R15" s="3">
         <f>Q15-B20</f>
-        <v>40.476190476190389</v>
+        <v>55.714285714285751</v>
       </c>
       <c r="S15" s="3">
         <f>R15-B20</f>
-        <v>32.380952380952294</v>
+        <v>48.571428571428605</v>
       </c>
       <c r="T15" s="3">
         <f>S15-B20</f>
-        <v>24.285714285714199</v>
+        <v>41.428571428571459</v>
       </c>
       <c r="U15" s="3">
         <f>T15-B20</f>
-        <v>16.190476190476105</v>
+        <v>34.285714285714313</v>
       </c>
       <c r="V15" s="3">
         <f>U15-B20</f>
-        <v>8.0952380952380096</v>
+        <v>27.142857142857171</v>
       </c>
       <c r="W15" s="3">
         <f>IF(V15-B20&lt;0,0,V15-B20)</f>
-        <v>0</v>
+        <v>20.000000000000028</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B20" s="9">
         <f>B15/B18</f>
-        <v>8.0952380952380949</v>
+        <v>7.1428571428571432</v>
       </c>
     </row>
   </sheetData>
